--- a/data/pca/factorExposure/factorExposure_2015-06-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01934795518704272</v>
+        <v>0.00809084912820965</v>
       </c>
       <c r="C2">
-        <v>0.01788743544642498</v>
+        <v>-0.04875518550376316</v>
       </c>
       <c r="D2">
-        <v>-0.1075670650626872</v>
+        <v>-0.1317103151151268</v>
       </c>
       <c r="E2">
-        <v>0.01002782489925452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02103194969784231</v>
+      </c>
+      <c r="F2">
+        <v>-0.03437860738406084</v>
+      </c>
+      <c r="G2">
+        <v>-0.1295467025645049</v>
+      </c>
+      <c r="H2">
+        <v>-0.03740553546541988</v>
+      </c>
+      <c r="I2">
+        <v>-0.05563518517401601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.00233073012021076</v>
+        <v>-0.002564399200104477</v>
       </c>
       <c r="C3">
-        <v>0.005158611571946078</v>
+        <v>-0.002236223326611479</v>
       </c>
       <c r="D3">
-        <v>0.002277594969924564</v>
+        <v>-0.001318967531860458</v>
       </c>
       <c r="E3">
-        <v>0.0001565072257140658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.005039643109330038</v>
+      </c>
+      <c r="F3">
+        <v>0.00106939409239988</v>
+      </c>
+      <c r="G3">
+        <v>-0.006060895116420242</v>
+      </c>
+      <c r="H3">
+        <v>0.008622552413044625</v>
+      </c>
+      <c r="I3">
+        <v>0.008050238431070745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04514264423333195</v>
+        <v>0.01787589618983621</v>
       </c>
       <c r="C4">
-        <v>0.07077240619454638</v>
+        <v>-0.1029072724845109</v>
       </c>
       <c r="D4">
-        <v>-0.1337195541728665</v>
+        <v>-0.1363885158649331</v>
       </c>
       <c r="E4">
-        <v>0.08171601348636308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.007795685448240822</v>
+      </c>
+      <c r="F4">
+        <v>-0.09363148762513335</v>
+      </c>
+      <c r="G4">
+        <v>-0.009769687088142853</v>
+      </c>
+      <c r="H4">
+        <v>-0.05147923455983998</v>
+      </c>
+      <c r="I4">
+        <v>0.06859115261466488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02284841442562768</v>
+        <v>0.02561136857044603</v>
       </c>
       <c r="C6">
-        <v>0.01270455946874636</v>
+        <v>-0.03329626851256447</v>
       </c>
       <c r="D6">
-        <v>-0.138109436862709</v>
+        <v>-0.123143297161048</v>
       </c>
       <c r="E6">
-        <v>0.0348355430320311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05780084490417145</v>
+      </c>
+      <c r="F6">
+        <v>-0.04702113542736597</v>
+      </c>
+      <c r="G6">
+        <v>-0.007158179299903708</v>
+      </c>
+      <c r="H6">
+        <v>-0.05368465866738339</v>
+      </c>
+      <c r="I6">
+        <v>0.01258734925556381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.004359760526418762</v>
+        <v>0.00700139435512653</v>
       </c>
       <c r="C7">
-        <v>0.02231234152156113</v>
+        <v>-0.03256521117928911</v>
       </c>
       <c r="D7">
-        <v>-0.1117162499431976</v>
+        <v>-0.09452721532109806</v>
       </c>
       <c r="E7">
-        <v>0.00140957376798299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0533621435101704</v>
+      </c>
+      <c r="F7">
+        <v>-0.009948735025088236</v>
+      </c>
+      <c r="G7">
+        <v>-0.006342449629072528</v>
+      </c>
+      <c r="H7">
+        <v>-0.07444004326719901</v>
+      </c>
+      <c r="I7">
+        <v>-0.004618456256252895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004459292621159447</v>
+        <v>-0.01112887056143413</v>
       </c>
       <c r="C8">
-        <v>0.02517367004997046</v>
+        <v>-0.0315561475617212</v>
       </c>
       <c r="D8">
-        <v>-0.08083853306967848</v>
+        <v>-0.07587669138409486</v>
       </c>
       <c r="E8">
-        <v>0.02515645910781195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03636210857662468</v>
+      </c>
+      <c r="F8">
+        <v>-0.05344574937808863</v>
+      </c>
+      <c r="G8">
+        <v>-0.06091849153065285</v>
+      </c>
+      <c r="H8">
+        <v>-2.062378739911871e-06</v>
+      </c>
+      <c r="I8">
+        <v>-0.01654942399976641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03789162511636302</v>
+        <v>0.01243723564946644</v>
       </c>
       <c r="C9">
-        <v>0.06019736242094097</v>
+        <v>-0.08551160607071968</v>
       </c>
       <c r="D9">
-        <v>-0.1326890488107939</v>
+        <v>-0.1176378596373266</v>
       </c>
       <c r="E9">
-        <v>0.06524453123974511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0107511978751604</v>
+      </c>
+      <c r="F9">
+        <v>-0.06178431122238724</v>
+      </c>
+      <c r="G9">
+        <v>0.005329414630428506</v>
+      </c>
+      <c r="H9">
+        <v>-0.06761954069290214</v>
+      </c>
+      <c r="I9">
+        <v>0.0316425254470214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1633657633713871</v>
+        <v>0.2361231795901975</v>
       </c>
       <c r="C10">
-        <v>-0.1760134848970603</v>
+        <v>0.09500313393907336</v>
       </c>
       <c r="D10">
-        <v>-0.008766676367259722</v>
+        <v>0.002794969609478064</v>
       </c>
       <c r="E10">
-        <v>0.04735800825196331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01492549120195882</v>
+      </c>
+      <c r="F10">
+        <v>-0.0465153700693159</v>
+      </c>
+      <c r="G10">
+        <v>-0.0001418305607467261</v>
+      </c>
+      <c r="H10">
+        <v>0.05370824989437785</v>
+      </c>
+      <c r="I10">
+        <v>-0.07326566538208273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02027216692122096</v>
+        <v>0.007745737436665769</v>
       </c>
       <c r="C11">
-        <v>0.03958528807871712</v>
+        <v>-0.05210593102075683</v>
       </c>
       <c r="D11">
-        <v>-0.04985384039831538</v>
+        <v>-0.04156401417820257</v>
       </c>
       <c r="E11">
-        <v>-0.01601484425121764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01954513434934816</v>
+      </c>
+      <c r="F11">
+        <v>0.01238091714054606</v>
+      </c>
+      <c r="G11">
+        <v>-0.002453106644611524</v>
+      </c>
+      <c r="H11">
+        <v>-0.0460348603826855</v>
+      </c>
+      <c r="I11">
+        <v>0.05746887976390537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02133104311065916</v>
+        <v>0.008762408375469738</v>
       </c>
       <c r="C12">
-        <v>0.03959012021937866</v>
+        <v>-0.04834218844592048</v>
       </c>
       <c r="D12">
-        <v>-0.06248834390985489</v>
+        <v>-0.04736773348093329</v>
       </c>
       <c r="E12">
-        <v>-0.006018317486824134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01560396507531287</v>
+      </c>
+      <c r="F12">
+        <v>0.01543988540272467</v>
+      </c>
+      <c r="G12">
+        <v>0.011820641508245</v>
+      </c>
+      <c r="H12">
+        <v>-0.07275993637113976</v>
+      </c>
+      <c r="I12">
+        <v>0.02945513860827888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004301395774493301</v>
+        <v>-0.005188458455120688</v>
       </c>
       <c r="C13">
-        <v>0.02406101164557952</v>
+        <v>-0.04398386093199334</v>
       </c>
       <c r="D13">
-        <v>-0.1482781644914372</v>
+        <v>-0.1480719250672033</v>
       </c>
       <c r="E13">
-        <v>0.03272219946437041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03970336133748074</v>
+      </c>
+      <c r="F13">
+        <v>-0.03335339551677046</v>
+      </c>
+      <c r="G13">
+        <v>-0.03080898177171876</v>
+      </c>
+      <c r="H13">
+        <v>-0.06171930369590941</v>
+      </c>
+      <c r="I13">
+        <v>-0.09829795276494542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004418566889112142</v>
+        <v>0.0004438102662460261</v>
       </c>
       <c r="C14">
-        <v>0.01756124556289675</v>
+        <v>-0.02767593727390303</v>
       </c>
       <c r="D14">
-        <v>-0.1000293676142419</v>
+        <v>-0.1018123389454934</v>
       </c>
       <c r="E14">
-        <v>0.008720568438628045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05040626155539273</v>
+      </c>
+      <c r="F14">
+        <v>-0.03497935687253308</v>
+      </c>
+      <c r="G14">
+        <v>-0.0356686482600323</v>
+      </c>
+      <c r="H14">
+        <v>-0.1225513843790973</v>
+      </c>
+      <c r="I14">
+        <v>-0.007329965624593337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001714094014621083</v>
+        <v>-0.001694191780758696</v>
       </c>
       <c r="C15">
-        <v>0.009837092648722182</v>
+        <v>-0.02197960580223103</v>
       </c>
       <c r="D15">
-        <v>-0.0281779868181172</v>
+        <v>-0.05747831796409887</v>
       </c>
       <c r="E15">
-        <v>-0.00337848341581842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01049971035410615</v>
+      </c>
+      <c r="F15">
+        <v>-0.006359023040015592</v>
+      </c>
+      <c r="G15">
+        <v>-0.02319765011196112</v>
+      </c>
+      <c r="H15">
+        <v>-0.02636060520297996</v>
+      </c>
+      <c r="I15">
+        <v>0.023765066975926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0205766939594709</v>
+        <v>0.008736191077182997</v>
       </c>
       <c r="C16">
-        <v>0.03724232350024195</v>
+        <v>-0.04825864684952758</v>
       </c>
       <c r="D16">
-        <v>-0.05594798340537773</v>
+        <v>-0.04347442278111643</v>
       </c>
       <c r="E16">
-        <v>-0.009164195431587236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02165836663894963</v>
+      </c>
+      <c r="F16">
+        <v>0.009495536539894697</v>
+      </c>
+      <c r="G16">
+        <v>0.009606848250204929</v>
+      </c>
+      <c r="H16">
+        <v>-0.05275400604169039</v>
+      </c>
+      <c r="I16">
+        <v>0.05208100793836027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.00502760417034157</v>
+        <v>-0.0001782319288983886</v>
       </c>
       <c r="C19">
-        <v>0.01978032083457861</v>
+        <v>-0.01843324480850199</v>
       </c>
       <c r="D19">
-        <v>-0.1050225801908865</v>
+        <v>-0.06622329301441725</v>
       </c>
       <c r="E19">
-        <v>0.04218757238156032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01146673672736032</v>
+      </c>
+      <c r="F19">
+        <v>-0.0154327056711725</v>
+      </c>
+      <c r="G19">
+        <v>-0.0228513432995158</v>
+      </c>
+      <c r="H19">
+        <v>-0.06037195587794252</v>
+      </c>
+      <c r="I19">
+        <v>-0.04464835244849549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003437076973334734</v>
+        <v>0.004085546391055012</v>
       </c>
       <c r="C20">
-        <v>0.02410105110005613</v>
+        <v>-0.0376676507305331</v>
       </c>
       <c r="D20">
-        <v>-0.08863602675325583</v>
+        <v>-0.09340883975016193</v>
       </c>
       <c r="E20">
-        <v>0.03430446202697616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02231915238363239</v>
+      </c>
+      <c r="F20">
+        <v>-0.02982505144054458</v>
+      </c>
+      <c r="G20">
+        <v>-0.004587303721048624</v>
+      </c>
+      <c r="H20">
+        <v>-0.05781002430625842</v>
+      </c>
+      <c r="I20">
+        <v>0.03254298615281911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007306102339760131</v>
+        <v>0.003297060748449815</v>
       </c>
       <c r="C21">
-        <v>0.02998238885772249</v>
+        <v>-0.0413140428202623</v>
       </c>
       <c r="D21">
-        <v>-0.1670090278511799</v>
+        <v>-0.1284863105428533</v>
       </c>
       <c r="E21">
-        <v>0.06938270130260707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03210347084951828</v>
+      </c>
+      <c r="F21">
+        <v>-0.09408310874025282</v>
+      </c>
+      <c r="G21">
+        <v>-0.05149350436285962</v>
+      </c>
+      <c r="H21">
+        <v>-0.1880798003346769</v>
+      </c>
+      <c r="I21">
+        <v>-0.1577149285725808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-4.639680127642685e-05</v>
+        <v>-0.01190557189625685</v>
       </c>
       <c r="C22">
-        <v>0.06147865463623337</v>
+        <v>-0.08340950742276756</v>
       </c>
       <c r="D22">
-        <v>-0.2384107691110379</v>
+        <v>-0.2657554815872042</v>
       </c>
       <c r="E22">
-        <v>-0.02095522191741543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0516007336067505</v>
+      </c>
+      <c r="F22">
+        <v>-0.03139001941671488</v>
+      </c>
+      <c r="G22">
+        <v>-0.2777629036300955</v>
+      </c>
+      <c r="H22">
+        <v>0.4494217642038232</v>
+      </c>
+      <c r="I22">
+        <v>0.1105629057071286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0002091328790198004</v>
+        <v>-0.01154644763433512</v>
       </c>
       <c r="C23">
-        <v>0.0619703840720565</v>
+        <v>-0.08444350346147637</v>
       </c>
       <c r="D23">
-        <v>-0.2379903990075321</v>
+        <v>-0.2665453231668387</v>
       </c>
       <c r="E23">
-        <v>-0.02080584308210887</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04849187898328959</v>
+      </c>
+      <c r="F23">
+        <v>-0.03148118125054859</v>
+      </c>
+      <c r="G23">
+        <v>-0.2776337616956015</v>
+      </c>
+      <c r="H23">
+        <v>0.4490456140427896</v>
+      </c>
+      <c r="I23">
+        <v>0.1108245662155788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02636833806912038</v>
+        <v>0.00826047043831275</v>
       </c>
       <c r="C24">
-        <v>0.0558273711029634</v>
+        <v>-0.06485010335637491</v>
       </c>
       <c r="D24">
-        <v>-0.06869006900978128</v>
+        <v>-0.05068842359903435</v>
       </c>
       <c r="E24">
-        <v>-0.004631080975342692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02950868410904827</v>
+      </c>
+      <c r="F24">
+        <v>0.004879730610666155</v>
+      </c>
+      <c r="G24">
+        <v>-0.00345488705920563</v>
+      </c>
+      <c r="H24">
+        <v>-0.07587918769757347</v>
+      </c>
+      <c r="I24">
+        <v>0.04682548606916861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02760121999791833</v>
+        <v>0.01189872019256435</v>
       </c>
       <c r="C25">
-        <v>0.04725269256173682</v>
+        <v>-0.05937573004832931</v>
       </c>
       <c r="D25">
-        <v>-0.06049325029429657</v>
+        <v>-0.04807713210179303</v>
       </c>
       <c r="E25">
-        <v>-0.0009598541488879018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01400170163897374</v>
+      </c>
+      <c r="F25">
+        <v>0.006680384902389045</v>
+      </c>
+      <c r="G25">
+        <v>0.005289618194513203</v>
+      </c>
+      <c r="H25">
+        <v>-0.04304653947434176</v>
+      </c>
+      <c r="I25">
+        <v>0.03441778887449872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007883751915695158</v>
+        <v>0.0106526102965165</v>
       </c>
       <c r="C26">
-        <v>0.01430048005638263</v>
+        <v>-0.02265040106324224</v>
       </c>
       <c r="D26">
-        <v>-0.08037252458536652</v>
+        <v>-0.0623589443355697</v>
       </c>
       <c r="E26">
-        <v>0.0190068164471266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04029460122496452</v>
+      </c>
+      <c r="F26">
+        <v>-0.04131937838801694</v>
+      </c>
+      <c r="G26">
+        <v>-0.02108998455239919</v>
+      </c>
+      <c r="H26">
+        <v>-0.09177572071910878</v>
+      </c>
+      <c r="I26">
+        <v>-0.04680951105556881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2480955964878327</v>
+        <v>0.3193987301496673</v>
       </c>
       <c r="C28">
-        <v>-0.2114770574759973</v>
+        <v>0.09421346556812912</v>
       </c>
       <c r="D28">
-        <v>-0.01682053720994286</v>
+        <v>0.009281686338748089</v>
       </c>
       <c r="E28">
-        <v>0.06575626976693773</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05238030622844773</v>
+      </c>
+      <c r="F28">
+        <v>-0.04949538525347465</v>
+      </c>
+      <c r="G28">
+        <v>-0.03929579295463231</v>
+      </c>
+      <c r="H28">
+        <v>0.01395943975251448</v>
+      </c>
+      <c r="I28">
+        <v>-0.1145492460469156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0004806333381065917</v>
+        <v>-0.001351478606649098</v>
       </c>
       <c r="C29">
-        <v>0.02107240716437542</v>
+        <v>-0.03114592607499761</v>
       </c>
       <c r="D29">
-        <v>-0.0975256412551691</v>
+        <v>-0.09832414514787549</v>
       </c>
       <c r="E29">
-        <v>0.01326238006915218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05666791497047251</v>
+      </c>
+      <c r="F29">
+        <v>-0.03709135466817153</v>
+      </c>
+      <c r="G29">
+        <v>-0.02218598593097523</v>
+      </c>
+      <c r="H29">
+        <v>-0.1273045606290534</v>
+      </c>
+      <c r="I29">
+        <v>-6.874622625734834e-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.0241002995913783</v>
+        <v>0.01381793247676379</v>
       </c>
       <c r="C30">
-        <v>0.05723772362385329</v>
+        <v>-0.08441026597002318</v>
       </c>
       <c r="D30">
-        <v>-0.1666412986793469</v>
+        <v>-0.1563339942305832</v>
       </c>
       <c r="E30">
-        <v>0.02286430174034194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05512274412387918</v>
+      </c>
+      <c r="F30">
+        <v>-0.03830592861701455</v>
+      </c>
+      <c r="G30">
+        <v>-0.03680574537319988</v>
+      </c>
+      <c r="H30">
+        <v>-0.05407959750588422</v>
+      </c>
+      <c r="I30">
+        <v>0.07558954553203041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04219485661733667</v>
+        <v>0.009269810097571969</v>
       </c>
       <c r="C31">
-        <v>0.08404354447419812</v>
+        <v>-0.09257441822347462</v>
       </c>
       <c r="D31">
-        <v>-0.0690748852453178</v>
+        <v>-0.03944568895025605</v>
       </c>
       <c r="E31">
-        <v>0.01232015703830942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.020135485076749</v>
+      </c>
+      <c r="F31">
+        <v>-0.01716483283732429</v>
+      </c>
+      <c r="G31">
+        <v>-0.01424474808049935</v>
+      </c>
+      <c r="H31">
+        <v>-0.04636881851513256</v>
+      </c>
+      <c r="I31">
+        <v>-0.04428203442998931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0203118509098108</v>
+        <v>0.01108899531550554</v>
       </c>
       <c r="C32">
-        <v>0.03204073454128951</v>
+        <v>-0.04605757131450033</v>
       </c>
       <c r="D32">
-        <v>-0.1035737350587685</v>
+        <v>-0.109179526427787</v>
       </c>
       <c r="E32">
-        <v>0.06646111286383423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004798451670072703</v>
+      </c>
+      <c r="F32">
+        <v>-0.0548909796781572</v>
+      </c>
+      <c r="G32">
+        <v>-0.02771029890806695</v>
+      </c>
+      <c r="H32">
+        <v>-0.04127956963970859</v>
+      </c>
+      <c r="I32">
+        <v>-0.0807116358416417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01213405672516206</v>
+        <v>0.004772930214443472</v>
       </c>
       <c r="C33">
-        <v>0.0407109860277844</v>
+        <v>-0.05650358051371138</v>
       </c>
       <c r="D33">
-        <v>-0.1388966057264487</v>
+        <v>-0.1205119893195664</v>
       </c>
       <c r="E33">
-        <v>0.03819682389536277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02694717824390778</v>
+      </c>
+      <c r="F33">
+        <v>-0.02845360685210359</v>
+      </c>
+      <c r="G33">
+        <v>-0.01256227529376261</v>
+      </c>
+      <c r="H33">
+        <v>-0.0637659134915394</v>
+      </c>
+      <c r="I33">
+        <v>-0.002120089018328596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02357960152080598</v>
+        <v>0.006114966391876072</v>
       </c>
       <c r="C34">
-        <v>0.05833758465263052</v>
+        <v>-0.06174532893805935</v>
       </c>
       <c r="D34">
-        <v>-0.05162919807147393</v>
+        <v>-0.03049785875328836</v>
       </c>
       <c r="E34">
-        <v>-0.04694573784126742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02959518196850158</v>
+      </c>
+      <c r="F34">
+        <v>0.03784056244935103</v>
+      </c>
+      <c r="G34">
+        <v>-0.0009379872322467069</v>
+      </c>
+      <c r="H34">
+        <v>-0.05990149008759519</v>
+      </c>
+      <c r="I34">
+        <v>0.02253660462358146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001176377939960624</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.007767395293394889</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02887336510428399</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003353115499314226</v>
+      </c>
+      <c r="F35">
+        <v>-0.01558980128576516</v>
+      </c>
+      <c r="G35">
+        <v>-0.01222291633741261</v>
+      </c>
+      <c r="H35">
+        <v>-0.03633463359283663</v>
+      </c>
+      <c r="I35">
+        <v>0.03063513628835217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007992512863343217</v>
+        <v>0.01018719200053324</v>
       </c>
       <c r="C36">
-        <v>0.005320365612057656</v>
+        <v>-0.01788388268072325</v>
       </c>
       <c r="D36">
-        <v>-0.08707969289295897</v>
+        <v>-0.07180749255856077</v>
       </c>
       <c r="E36">
-        <v>0.04211826751416429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02585729469422126</v>
+      </c>
+      <c r="F36">
+        <v>-0.04745541504176388</v>
+      </c>
+      <c r="G36">
+        <v>-0.01490569555172723</v>
+      </c>
+      <c r="H36">
+        <v>-0.06391520532054985</v>
+      </c>
+      <c r="I36">
+        <v>-0.02628977755625497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005517060998034331</v>
+        <v>0.01173022144491966</v>
       </c>
       <c r="C38">
-        <v>0.006005364983300088</v>
+        <v>-0.01718857878755803</v>
       </c>
       <c r="D38">
-        <v>-0.08482705316137511</v>
+        <v>-0.08525995831027534</v>
       </c>
       <c r="E38">
-        <v>0.01221599332362154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001470063073572323</v>
+      </c>
+      <c r="F38">
+        <v>-0.002158588324447882</v>
+      </c>
+      <c r="G38">
+        <v>-0.03445515291335437</v>
+      </c>
+      <c r="H38">
+        <v>-0.06068420677145734</v>
+      </c>
+      <c r="I38">
+        <v>-0.01565012325019546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01758257757155468</v>
+        <v>0.004021811969477459</v>
       </c>
       <c r="C39">
-        <v>0.05637339650464808</v>
+        <v>-0.07395542387062971</v>
       </c>
       <c r="D39">
-        <v>-0.1140895338180358</v>
+        <v>-0.09901195882022064</v>
       </c>
       <c r="E39">
-        <v>-0.01866680607654151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0565114164403937</v>
+      </c>
+      <c r="F39">
+        <v>0.002504064092742956</v>
+      </c>
+      <c r="G39">
+        <v>-0.005862177083161752</v>
+      </c>
+      <c r="H39">
+        <v>-0.1035759323648038</v>
+      </c>
+      <c r="I39">
+        <v>0.07224790955952196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01099448114190623</v>
+        <v>0.01062469176513994</v>
       </c>
       <c r="C40">
-        <v>0.01557302084825483</v>
+        <v>-0.02655204017022217</v>
       </c>
       <c r="D40">
-        <v>-0.1205330633068771</v>
+        <v>-0.09693409958427596</v>
       </c>
       <c r="E40">
-        <v>-0.02055364283104407</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04862807682510867</v>
+      </c>
+      <c r="F40">
+        <v>0.02014075196022707</v>
+      </c>
+      <c r="G40">
+        <v>-0.06871456525929152</v>
+      </c>
+      <c r="H40">
+        <v>-0.06639419060121808</v>
+      </c>
+      <c r="I40">
+        <v>-0.07928507544305222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01151874928676453</v>
+        <v>0.01361042204301245</v>
       </c>
       <c r="C41">
-        <v>0.00494236957824447</v>
+        <v>-0.01478706837073216</v>
       </c>
       <c r="D41">
-        <v>-0.04949102932552146</v>
+        <v>-0.03957298441610656</v>
       </c>
       <c r="E41">
-        <v>0.03231868699758468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.008925822134243413</v>
+      </c>
+      <c r="F41">
+        <v>-0.02436493684287694</v>
+      </c>
+      <c r="G41">
+        <v>-0.02054555717484251</v>
+      </c>
+      <c r="H41">
+        <v>-0.04018896271169053</v>
+      </c>
+      <c r="I41">
+        <v>-0.02158092471678477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005043411154868412</v>
+        <v>0.007460224325955193</v>
       </c>
       <c r="C43">
-        <v>0.005972157143629839</v>
+        <v>-0.01306700692844697</v>
       </c>
       <c r="D43">
-        <v>-0.05965848761287136</v>
+        <v>-0.04714041089060123</v>
       </c>
       <c r="E43">
-        <v>0.02136588509560287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.007565876886275148</v>
+      </c>
+      <c r="F43">
+        <v>-0.01952627643403732</v>
+      </c>
+      <c r="G43">
+        <v>-0.02121597031391164</v>
+      </c>
+      <c r="H43">
+        <v>-0.05533206834299187</v>
+      </c>
+      <c r="I43">
+        <v>-0.005015753783733361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01822913856019098</v>
+        <v>0.01184917259778784</v>
       </c>
       <c r="C44">
-        <v>0.02217179779978635</v>
+        <v>-0.04390273959328038</v>
       </c>
       <c r="D44">
-        <v>-0.1110291189994138</v>
+        <v>-0.1127222291089982</v>
       </c>
       <c r="E44">
-        <v>0.04673083608346341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04029038607127448</v>
+      </c>
+      <c r="F44">
+        <v>-0.03650173058379704</v>
+      </c>
+      <c r="G44">
+        <v>-0.03337375316305027</v>
+      </c>
+      <c r="H44">
+        <v>-0.04721907986271993</v>
+      </c>
+      <c r="I44">
+        <v>0.06225968120085173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006596559735730973</v>
+        <v>-0.001312807692456866</v>
       </c>
       <c r="C46">
-        <v>0.02766176228101406</v>
+        <v>-0.03833077110675201</v>
       </c>
       <c r="D46">
-        <v>-0.09086282700195493</v>
+        <v>-0.07832467545687319</v>
       </c>
       <c r="E46">
-        <v>0.01823936715740662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04157635265488079</v>
+      </c>
+      <c r="F46">
+        <v>-0.03369448112978376</v>
+      </c>
+      <c r="G46">
+        <v>-0.03359168281209416</v>
+      </c>
+      <c r="H46">
+        <v>-0.1288262559663044</v>
+      </c>
+      <c r="I46">
+        <v>0.01305043223871347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08476375537873392</v>
+        <v>0.03485515803678111</v>
       </c>
       <c r="C47">
-        <v>0.1043782823540897</v>
+        <v>-0.1274193890806264</v>
       </c>
       <c r="D47">
-        <v>-0.05852202398796943</v>
+        <v>-0.02790705264406745</v>
       </c>
       <c r="E47">
-        <v>0.02837533878706851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007779816214790327</v>
+      </c>
+      <c r="F47">
+        <v>0.004331266106407863</v>
+      </c>
+      <c r="G47">
+        <v>0.03008372267907791</v>
+      </c>
+      <c r="H47">
+        <v>-0.06201861316377376</v>
+      </c>
+      <c r="I47">
+        <v>-0.1043414663762487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007859855774992602</v>
+        <v>0.0103133792825065</v>
       </c>
       <c r="C48">
-        <v>0.01553060510172131</v>
+        <v>-0.02707843816523085</v>
       </c>
       <c r="D48">
-        <v>-0.09369033435651462</v>
+        <v>-0.07531837471599899</v>
       </c>
       <c r="E48">
-        <v>0.05450072622705075</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01898903445728714</v>
+      </c>
+      <c r="F48">
+        <v>-0.05972307547335848</v>
+      </c>
+      <c r="G48">
+        <v>-0.03030540524608442</v>
+      </c>
+      <c r="H48">
+        <v>-0.09987586100938972</v>
+      </c>
+      <c r="I48">
+        <v>-0.0117093589009352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03975050598130199</v>
+        <v>0.01339946668250045</v>
       </c>
       <c r="C50">
-        <v>0.0605821630645382</v>
+        <v>-0.07539855984651191</v>
       </c>
       <c r="D50">
-        <v>-0.06778923438734571</v>
+        <v>-0.04755081906526443</v>
       </c>
       <c r="E50">
-        <v>0.008487733525324932</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01182776501114501</v>
+      </c>
+      <c r="F50">
+        <v>-0.01046401996349201</v>
+      </c>
+      <c r="G50">
+        <v>-0.02489071676101321</v>
+      </c>
+      <c r="H50">
+        <v>-0.0324603802591159</v>
+      </c>
+      <c r="I50">
+        <v>-0.07529626857676815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0007573070609093797</v>
+        <v>-1.947712523163315e-05</v>
       </c>
       <c r="C51">
-        <v>0.002928816962851855</v>
+        <v>-0.01424907249286803</v>
       </c>
       <c r="D51">
-        <v>-0.05784435188283089</v>
+        <v>-0.05876580112637063</v>
       </c>
       <c r="E51">
-        <v>0.0002235808389632497</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04035488513088294</v>
+      </c>
+      <c r="F51">
+        <v>-0.03736746062057376</v>
+      </c>
+      <c r="G51">
+        <v>-0.03124381162208409</v>
+      </c>
+      <c r="H51">
+        <v>-0.03602239987301695</v>
+      </c>
+      <c r="I51">
+        <v>-0.01011542858259699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1108497052215717</v>
+        <v>0.05565074971554009</v>
       </c>
       <c r="C53">
-        <v>0.1205357935751631</v>
+        <v>-0.1559900367820714</v>
       </c>
       <c r="D53">
-        <v>-0.01955408847874633</v>
+        <v>0.01553216801899333</v>
       </c>
       <c r="E53">
-        <v>0.05983079954789636</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02854864795352751</v>
+      </c>
+      <c r="F53">
+        <v>-0.04951502301103743</v>
+      </c>
+      <c r="G53">
+        <v>-0.00201669982159484</v>
+      </c>
+      <c r="H53">
+        <v>-0.001614816174204294</v>
+      </c>
+      <c r="I53">
+        <v>-0.04529767224307267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01457192374987658</v>
+        <v>0.008847350939910419</v>
       </c>
       <c r="C54">
-        <v>0.02151760677156971</v>
+        <v>-0.03833774632594607</v>
       </c>
       <c r="D54">
-        <v>-0.09770852404299583</v>
+        <v>-0.08055538705071816</v>
       </c>
       <c r="E54">
-        <v>0.001375146316150927</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01629578383518375</v>
+      </c>
+      <c r="F54">
+        <v>-0.0005366045945374213</v>
+      </c>
+      <c r="G54">
+        <v>-0.03703305115409906</v>
+      </c>
+      <c r="H54">
+        <v>-0.08050871549440114</v>
+      </c>
+      <c r="I54">
+        <v>-0.0027937090088995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09841018659314146</v>
+        <v>0.04210934257787908</v>
       </c>
       <c r="C55">
-        <v>0.1014423160761592</v>
+        <v>-0.1291690977458064</v>
       </c>
       <c r="D55">
-        <v>-0.008423158620059292</v>
+        <v>0.02937589422797421</v>
       </c>
       <c r="E55">
-        <v>0.01307858938078014</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003459901341278745</v>
+      </c>
+      <c r="F55">
+        <v>-0.01481769162763197</v>
+      </c>
+      <c r="G55">
+        <v>-0.01288430293564961</v>
+      </c>
+      <c r="H55">
+        <v>-0.00412790997334638</v>
+      </c>
+      <c r="I55">
+        <v>-0.06050696247622377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1364715680080322</v>
+        <v>0.05782514539403998</v>
       </c>
       <c r="C56">
-        <v>0.1363255285444046</v>
+        <v>-0.1872441953529416</v>
       </c>
       <c r="D56">
-        <v>-0.002525085810716955</v>
+        <v>0.02799466545369393</v>
       </c>
       <c r="E56">
-        <v>0.01458437996755566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03264796842339521</v>
+      </c>
+      <c r="F56">
+        <v>-0.01926466938257485</v>
+      </c>
+      <c r="G56">
+        <v>-0.0584003106347678</v>
+      </c>
+      <c r="H56">
+        <v>0.01280769509971335</v>
+      </c>
+      <c r="I56">
+        <v>-0.0734293052370958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.006925206964966158</v>
+        <v>0.003233466163749041</v>
       </c>
       <c r="C58">
-        <v>0.01223001400955214</v>
+        <v>-0.0487341275765463</v>
       </c>
       <c r="D58">
-        <v>-0.2114849658803231</v>
+        <v>-0.275921938888822</v>
       </c>
       <c r="E58">
-        <v>0.08230394552035149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.009885286649841306</v>
+      </c>
+      <c r="F58">
+        <v>-0.1122348897930387</v>
+      </c>
+      <c r="G58">
+        <v>-0.1108976408585067</v>
+      </c>
+      <c r="H58">
+        <v>0.1157825040447096</v>
+      </c>
+      <c r="I58">
+        <v>0.08308087326443897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1739238555714921</v>
+        <v>0.2516062326485707</v>
       </c>
       <c r="C59">
-        <v>-0.1546943612236588</v>
+        <v>0.06548185332702348</v>
       </c>
       <c r="D59">
-        <v>-0.04427952705873563</v>
+        <v>-0.05839172874772901</v>
       </c>
       <c r="E59">
-        <v>0.0367464822768387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02266215091357428</v>
+      </c>
+      <c r="F59">
+        <v>-0.02579727299746114</v>
+      </c>
+      <c r="G59">
+        <v>-0.01137009077318551</v>
+      </c>
+      <c r="H59">
+        <v>0.003597513736377098</v>
+      </c>
+      <c r="I59">
+        <v>-0.07603574909893585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1933704459294813</v>
+        <v>0.1519556991697484</v>
       </c>
       <c r="C60">
-        <v>0.09434364689746376</v>
+        <v>-0.173016536202861</v>
       </c>
       <c r="D60">
-        <v>-0.1932752209600258</v>
+        <v>-0.09644829818290233</v>
       </c>
       <c r="E60">
-        <v>-0.1724051210092924</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1724892457389193</v>
+      </c>
+      <c r="F60">
+        <v>0.2236477472733571</v>
+      </c>
+      <c r="G60">
+        <v>0.257173372638287</v>
+      </c>
+      <c r="H60">
+        <v>0.1706889130733736</v>
+      </c>
+      <c r="I60">
+        <v>-0.04963367559918325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02822518051016125</v>
+        <v>0.0102998917693461</v>
       </c>
       <c r="C61">
-        <v>0.05231225439714938</v>
+        <v>-0.07113304994827942</v>
       </c>
       <c r="D61">
-        <v>-0.100157368434283</v>
+        <v>-0.07829379518086209</v>
       </c>
       <c r="E61">
-        <v>-0.008021683833214738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03818187615724805</v>
+      </c>
+      <c r="F61">
+        <v>0.0144445880335637</v>
+      </c>
+      <c r="G61">
+        <v>0.009642002800498829</v>
+      </c>
+      <c r="H61">
+        <v>-0.09217499109561847</v>
+      </c>
+      <c r="I61">
+        <v>0.02904663728091537</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.008819965053680838</v>
+        <v>0.00699016346874873</v>
       </c>
       <c r="C63">
-        <v>0.02556856317969633</v>
+        <v>-0.03413653052496088</v>
       </c>
       <c r="D63">
-        <v>-0.09377156500975038</v>
+        <v>-0.06558540918476062</v>
       </c>
       <c r="E63">
-        <v>0.01335720656991693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05496897093016039</v>
+      </c>
+      <c r="F63">
+        <v>-0.02809577139685502</v>
+      </c>
+      <c r="G63">
+        <v>-0.02123912478083745</v>
+      </c>
+      <c r="H63">
+        <v>-0.06725473658284473</v>
+      </c>
+      <c r="I63">
+        <v>0.01348570869733343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05944206232046173</v>
+        <v>0.01944821570945073</v>
       </c>
       <c r="C64">
-        <v>0.08013336194847541</v>
+        <v>-0.1056960608995349</v>
       </c>
       <c r="D64">
-        <v>-0.03752806083276378</v>
+        <v>-0.02608677997580512</v>
       </c>
       <c r="E64">
-        <v>0.01373192225536315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02899082042466921</v>
+      </c>
+      <c r="F64">
+        <v>-0.0181710296346295</v>
+      </c>
+      <c r="G64">
+        <v>0.03889713249538562</v>
+      </c>
+      <c r="H64">
+        <v>-0.1120743881693728</v>
+      </c>
+      <c r="I64">
+        <v>0.06741208069272879</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02645292788119569</v>
+        <v>0.02017190621381078</v>
       </c>
       <c r="C65">
-        <v>0.01597755524441827</v>
+        <v>-0.04198026461632031</v>
       </c>
       <c r="D65">
-        <v>-0.118650199557441</v>
+        <v>-0.1176408016166389</v>
       </c>
       <c r="E65">
-        <v>0.00357497268385705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04288212110930012</v>
+      </c>
+      <c r="F65">
+        <v>0.008151589619794258</v>
+      </c>
+      <c r="G65">
+        <v>0.02239269457904607</v>
+      </c>
+      <c r="H65">
+        <v>-0.03471814502407074</v>
+      </c>
+      <c r="I65">
+        <v>0.04048399045353822</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02153491123555777</v>
+        <v>0.002012255944810566</v>
       </c>
       <c r="C66">
-        <v>0.06370177776654674</v>
+        <v>-0.09090758158135626</v>
       </c>
       <c r="D66">
-        <v>-0.1202910910645915</v>
+        <v>-0.1264762310285674</v>
       </c>
       <c r="E66">
-        <v>-0.02008820037180473</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04308322193592603</v>
+      </c>
+      <c r="F66">
+        <v>0.009364364302634629</v>
+      </c>
+      <c r="G66">
+        <v>-0.01847622264052663</v>
+      </c>
+      <c r="H66">
+        <v>-0.06099847392535621</v>
+      </c>
+      <c r="I66">
+        <v>0.06945972432742342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0254751181196773</v>
+        <v>0.02218110189779659</v>
       </c>
       <c r="C67">
-        <v>0.01840311707478298</v>
+        <v>-0.02946202334473551</v>
       </c>
       <c r="D67">
-        <v>-0.03941498570361639</v>
+        <v>-0.03590056050504337</v>
       </c>
       <c r="E67">
-        <v>-0.01415919277846127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.008425471010256305</v>
+      </c>
+      <c r="F67">
+        <v>0.02727682679224653</v>
+      </c>
+      <c r="G67">
+        <v>-0.01922609409684683</v>
+      </c>
+      <c r="H67">
+        <v>-0.06404440921425796</v>
+      </c>
+      <c r="I67">
+        <v>-0.008770938046642503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1990162854080049</v>
+        <v>0.2726762920160243</v>
       </c>
       <c r="C68">
-        <v>-0.1646943055996015</v>
+        <v>0.06816681630265782</v>
       </c>
       <c r="D68">
-        <v>-0.03469781649309642</v>
+        <v>-0.03171925481672275</v>
       </c>
       <c r="E68">
-        <v>0.00826213028455058</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004160890933333146</v>
+      </c>
+      <c r="F68">
+        <v>-0.02653380886492958</v>
+      </c>
+      <c r="G68">
+        <v>-0.05715520415804883</v>
+      </c>
+      <c r="H68">
+        <v>0.06367463962385324</v>
+      </c>
+      <c r="I68">
+        <v>-0.09104912245154079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06309257135848108</v>
+        <v>0.01954397667746396</v>
       </c>
       <c r="C69">
-        <v>0.1142159566917298</v>
+        <v>-0.1185851174513326</v>
       </c>
       <c r="D69">
-        <v>-0.08312991891126477</v>
+        <v>-0.03234948763681848</v>
       </c>
       <c r="E69">
-        <v>0.01520477459131933</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008472928826027234</v>
+      </c>
+      <c r="F69">
+        <v>0.007646399402147028</v>
+      </c>
+      <c r="G69">
+        <v>0.01415163777303865</v>
+      </c>
+      <c r="H69">
+        <v>-0.04671389324719839</v>
+      </c>
+      <c r="I69">
+        <v>-0.0707057655841789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2058870050542157</v>
+        <v>0.2737966591387723</v>
       </c>
       <c r="C71">
-        <v>-0.1881966286025928</v>
+        <v>0.08368978526005851</v>
       </c>
       <c r="D71">
-        <v>-0.02360867555213679</v>
+        <v>-0.01758353647126446</v>
       </c>
       <c r="E71">
-        <v>0.01606222711097924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.002178965520381913</v>
+      </c>
+      <c r="F71">
+        <v>-0.02137361809477923</v>
+      </c>
+      <c r="G71">
+        <v>-0.0401194497283805</v>
+      </c>
+      <c r="H71">
+        <v>-0.01265356726472233</v>
+      </c>
+      <c r="I71">
+        <v>-0.1225483593572459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.108386070142384</v>
+        <v>0.05665915610091475</v>
       </c>
       <c r="C72">
-        <v>0.07021251053961071</v>
+        <v>-0.1235038888820443</v>
       </c>
       <c r="D72">
-        <v>-0.1049771232471479</v>
+        <v>-0.06086885657902233</v>
       </c>
       <c r="E72">
-        <v>-0.05045894855990767</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07255684427488102</v>
+      </c>
+      <c r="F72">
+        <v>0.02823880996769214</v>
+      </c>
+      <c r="G72">
+        <v>0.0228275940056852</v>
+      </c>
+      <c r="H72">
+        <v>-0.05194911873063365</v>
+      </c>
+      <c r="I72">
+        <v>0.07660094696385754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.178765637681936</v>
+        <v>0.1392793147941771</v>
       </c>
       <c r="C73">
-        <v>0.05991138679536291</v>
+        <v>-0.1463350894113545</v>
       </c>
       <c r="D73">
-        <v>-0.2683498728005341</v>
+        <v>-0.1071635067653421</v>
       </c>
       <c r="E73">
-        <v>-0.2670994076248754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3045277726627164</v>
+      </c>
+      <c r="F73">
+        <v>0.3289787559915611</v>
+      </c>
+      <c r="G73">
+        <v>0.4281039731005769</v>
+      </c>
+      <c r="H73">
+        <v>0.07334533159159588</v>
+      </c>
+      <c r="I73">
+        <v>0.008284234572267679</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1126332366195918</v>
+        <v>0.05025922287424251</v>
       </c>
       <c r="C74">
-        <v>0.1127719724418991</v>
+        <v>-0.1481320383188604</v>
       </c>
       <c r="D74">
-        <v>0.01790881865715929</v>
+        <v>0.04076159106153315</v>
       </c>
       <c r="E74">
-        <v>0.04177701407796072</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01219916153135102</v>
+      </c>
+      <c r="F74">
+        <v>-0.03685519437342855</v>
+      </c>
+      <c r="G74">
+        <v>0.002633905662498439</v>
+      </c>
+      <c r="H74">
+        <v>0.01700478947741621</v>
+      </c>
+      <c r="I74">
+        <v>-0.0855929673306802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.24152742572584</v>
+        <v>0.1118122146214251</v>
       </c>
       <c r="C75">
-        <v>0.1913955632889177</v>
+        <v>-0.2698554515198825</v>
       </c>
       <c r="D75">
-        <v>0.1085877781376245</v>
+        <v>0.1339491868560023</v>
       </c>
       <c r="E75">
-        <v>-0.01704981608483797</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08868773788934348</v>
+      </c>
+      <c r="F75">
+        <v>0.02502588024517329</v>
+      </c>
+      <c r="G75">
+        <v>-0.1043056233136138</v>
+      </c>
+      <c r="H75">
+        <v>0.009237611098942396</v>
+      </c>
+      <c r="I75">
+        <v>-0.05817658515538533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1443296117993084</v>
+        <v>0.06452020737495448</v>
       </c>
       <c r="C76">
-        <v>0.1347353564080008</v>
+        <v>-0.183565807677045</v>
       </c>
       <c r="D76">
-        <v>-0.0179313949382301</v>
+        <v>0.0338980406038223</v>
       </c>
       <c r="E76">
-        <v>0.01127431827961238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02181495078881419</v>
+      </c>
+      <c r="F76">
+        <v>-0.005504332181805697</v>
+      </c>
+      <c r="G76">
+        <v>-0.04577871618229559</v>
+      </c>
+      <c r="H76">
+        <v>-0.02251057908668653</v>
+      </c>
+      <c r="I76">
+        <v>-0.06506496707816409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02156185646434897</v>
+        <v>-0.0009197698916703053</v>
       </c>
       <c r="C77">
-        <v>0.06832711482462238</v>
+        <v>-0.1006358789033081</v>
       </c>
       <c r="D77">
-        <v>-0.02754476814295782</v>
+        <v>-0.3168216287420697</v>
       </c>
       <c r="E77">
-        <v>0.2357517483815469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.834546162957888</v>
+      </c>
+      <c r="F77">
+        <v>0.2473039342718498</v>
+      </c>
+      <c r="G77">
+        <v>0.2387603804567997</v>
+      </c>
+      <c r="H77">
+        <v>0.1030624574724763</v>
+      </c>
+      <c r="I77">
+        <v>-0.03202282686442762</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.0282035049882637</v>
+        <v>0.0143479430778678</v>
       </c>
       <c r="C78">
-        <v>0.06468405091277697</v>
+        <v>-0.08579120052034077</v>
       </c>
       <c r="D78">
-        <v>-0.1504170806719212</v>
+        <v>-0.1254442311710758</v>
       </c>
       <c r="E78">
-        <v>0.04730580248282715</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.067011139592006</v>
+      </c>
+      <c r="F78">
+        <v>-0.050841039393918</v>
+      </c>
+      <c r="G78">
+        <v>-0.03805749402047542</v>
+      </c>
+      <c r="H78">
+        <v>-0.01447589198629236</v>
+      </c>
+      <c r="I78">
+        <v>-0.1126511427599973</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09861133157477631</v>
+        <v>0.03416294501033975</v>
       </c>
       <c r="C79">
-        <v>0.1669804141734158</v>
+        <v>-0.1875872055532142</v>
       </c>
       <c r="D79">
-        <v>0.0915786849662321</v>
+        <v>0.07049431903752004</v>
       </c>
       <c r="E79">
-        <v>0.7927194872494578</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.06022485867035242</v>
+      </c>
+      <c r="F79">
+        <v>-0.7632132210249948</v>
+      </c>
+      <c r="G79">
+        <v>0.4904869746783557</v>
+      </c>
+      <c r="H79">
+        <v>0.1939824800576475</v>
+      </c>
+      <c r="I79">
+        <v>0.1105258087605628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00695321805513822</v>
+        <v>0.004429792020324588</v>
       </c>
       <c r="C80">
-        <v>0.04480210045228195</v>
+        <v>-0.04442260263497173</v>
       </c>
       <c r="D80">
-        <v>-0.04919938132841069</v>
+        <v>-0.04103148539735808</v>
       </c>
       <c r="E80">
-        <v>-0.00695983792411723</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04238640519757164</v>
+      </c>
+      <c r="F80">
+        <v>-0.008039507849955305</v>
+      </c>
+      <c r="G80">
+        <v>-0.02376033389547017</v>
+      </c>
+      <c r="H80">
+        <v>-0.01882954929032662</v>
+      </c>
+      <c r="I80">
+        <v>-0.07616147788193606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1221361007340843</v>
+        <v>0.04524813055939516</v>
       </c>
       <c r="C81">
-        <v>0.1297093278956038</v>
+        <v>-0.1663988314352481</v>
       </c>
       <c r="D81">
-        <v>0.07379265679094647</v>
+        <v>0.07913879288399207</v>
       </c>
       <c r="E81">
-        <v>0.06648229751161107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05243233268819229</v>
+      </c>
+      <c r="F81">
+        <v>-0.06247000988940349</v>
+      </c>
+      <c r="G81">
+        <v>-0.06050938729014496</v>
+      </c>
+      <c r="H81">
+        <v>-0.05672677938170616</v>
+      </c>
+      <c r="I81">
+        <v>-0.09588603707195303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2606961998800106</v>
+        <v>0.09465274359194172</v>
       </c>
       <c r="C82">
-        <v>0.2887597069422744</v>
+        <v>-0.3284824451716652</v>
       </c>
       <c r="D82">
-        <v>0.2042287959210196</v>
+        <v>0.2300554126768867</v>
       </c>
       <c r="E82">
-        <v>-0.1321856275020394</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05734600571391514</v>
+      </c>
+      <c r="F82">
+        <v>0.1037509055993966</v>
+      </c>
+      <c r="G82">
+        <v>-0.1168386608067025</v>
+      </c>
+      <c r="H82">
+        <v>-0.0839684193642436</v>
+      </c>
+      <c r="I82">
+        <v>-0.04515869306657409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004690967788044874</v>
+        <v>-0.0101119273474574</v>
       </c>
       <c r="C83">
-        <v>0.05181595095623495</v>
+        <v>-0.02958652803063033</v>
       </c>
       <c r="D83">
-        <v>-0.0117453658650965</v>
+        <v>-0.03515131795738811</v>
       </c>
       <c r="E83">
-        <v>0.05811037515267072</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07036270540706283</v>
+      </c>
+      <c r="F83">
+        <v>-0.07441979277660457</v>
+      </c>
+      <c r="G83">
+        <v>-0.087836175419543</v>
+      </c>
+      <c r="H83">
+        <v>-0.0353266748407627</v>
+      </c>
+      <c r="I83">
+        <v>-0.5827038595428046</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0007113379057302819</v>
+        <v>-0.002519498256904167</v>
       </c>
       <c r="C84">
-        <v>-0.001700786829876189</v>
+        <v>-0.01864369341741517</v>
       </c>
       <c r="D84">
-        <v>-0.004552663737027148</v>
+        <v>-0.04720920333946009</v>
       </c>
       <c r="E84">
-        <v>0.0004781021360010212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0006039097147822588</v>
+      </c>
+      <c r="F84">
+        <v>-0.02993616491920388</v>
+      </c>
+      <c r="G84">
+        <v>-0.0511674697830759</v>
+      </c>
+      <c r="H84">
+        <v>-0.00648935580471945</v>
+      </c>
+      <c r="I84">
+        <v>0.06244196838480787</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1459847849097592</v>
+        <v>0.05952470067546912</v>
       </c>
       <c r="C85">
-        <v>0.1339255023045252</v>
+        <v>-0.1841650019602532</v>
       </c>
       <c r="D85">
-        <v>0.0386737959901548</v>
+        <v>0.08870405129635139</v>
       </c>
       <c r="E85">
-        <v>0.0271201467815683</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0002786056349727878</v>
+      </c>
+      <c r="F85">
+        <v>-0.07314000203781344</v>
+      </c>
+      <c r="G85">
+        <v>-0.01912564705639608</v>
+      </c>
+      <c r="H85">
+        <v>0.01158170926647989</v>
+      </c>
+      <c r="I85">
+        <v>-0.05465981259433508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.013346751001015</v>
+        <v>0.009622099377460764</v>
       </c>
       <c r="C86">
-        <v>0.01291230279243127</v>
+        <v>-0.03135137450117401</v>
       </c>
       <c r="D86">
-        <v>-0.07575221944654821</v>
+        <v>-0.1015884011988065</v>
       </c>
       <c r="E86">
-        <v>0.05156321732851396</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02337411849236502</v>
+      </c>
+      <c r="F86">
+        <v>-0.001142964779760007</v>
+      </c>
+      <c r="G86">
+        <v>0.003980105492829876</v>
+      </c>
+      <c r="H86">
+        <v>-0.02586653809834431</v>
+      </c>
+      <c r="I86">
+        <v>-0.07286329088084539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01990062934886422</v>
+        <v>0.01024543437160224</v>
       </c>
       <c r="C87">
-        <v>0.023212627039339</v>
+        <v>-0.05541154430710653</v>
       </c>
       <c r="D87">
-        <v>-0.1320296451182107</v>
+        <v>-0.1466715467565783</v>
       </c>
       <c r="E87">
-        <v>0.05368196640910011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.009481736836293624</v>
+      </c>
+      <c r="F87">
+        <v>-0.04958955763327211</v>
+      </c>
+      <c r="G87">
+        <v>-0.06052559783559642</v>
+      </c>
+      <c r="H87">
+        <v>-0.02398753761502509</v>
+      </c>
+      <c r="I87">
+        <v>0.00382164416472437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0573408303606765</v>
+        <v>0.03283493129516463</v>
       </c>
       <c r="C88">
-        <v>0.04605901785361705</v>
+        <v>-0.06863019351321376</v>
       </c>
       <c r="D88">
-        <v>-0.02749556425137591</v>
+        <v>-0.006738688136612384</v>
       </c>
       <c r="E88">
-        <v>0.02921286821197048</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02430047784498819</v>
+      </c>
+      <c r="F88">
+        <v>-0.01665733871690219</v>
+      </c>
+      <c r="G88">
+        <v>0.003699044980661974</v>
+      </c>
+      <c r="H88">
+        <v>-0.02473443892640784</v>
+      </c>
+      <c r="I88">
+        <v>-0.01133060461104266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3062495825369259</v>
+        <v>0.4097310412314937</v>
       </c>
       <c r="C89">
-        <v>-0.3374254505968589</v>
+        <v>0.1584237674515632</v>
       </c>
       <c r="D89">
-        <v>-0.01355105206411068</v>
+        <v>-0.03357878727902935</v>
       </c>
       <c r="E89">
-        <v>0.09315531867173577</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04930638674534265</v>
+      </c>
+      <c r="F89">
+        <v>-0.07014121672523914</v>
+      </c>
+      <c r="G89">
+        <v>-0.03648082590035216</v>
+      </c>
+      <c r="H89">
+        <v>-0.1150420677202275</v>
+      </c>
+      <c r="I89">
+        <v>0.191399831033563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2450129838073561</v>
+        <v>0.3177426243242198</v>
       </c>
       <c r="C90">
-        <v>-0.2510994203228889</v>
+        <v>0.1100067487981554</v>
       </c>
       <c r="D90">
-        <v>-0.03563023256660174</v>
+        <v>-0.03267387091252762</v>
       </c>
       <c r="E90">
-        <v>-0.006283614391062751</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.009305382818019436</v>
+      </c>
+      <c r="F90">
+        <v>0.006754985306828176</v>
+      </c>
+      <c r="G90">
+        <v>-0.06406964300516879</v>
+      </c>
+      <c r="H90">
+        <v>0.02921782760777922</v>
+      </c>
+      <c r="I90">
+        <v>-0.07339231786966841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1612595137390701</v>
+        <v>0.06986315169999248</v>
       </c>
       <c r="C91">
-        <v>0.1821843963286421</v>
+        <v>-0.2118260314660814</v>
       </c>
       <c r="D91">
-        <v>0.09638419044380556</v>
+        <v>0.1064332057980457</v>
       </c>
       <c r="E91">
-        <v>0.09530148167527416</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06249038847207403</v>
+      </c>
+      <c r="F91">
+        <v>-0.07157416487961547</v>
+      </c>
+      <c r="G91">
+        <v>-0.005005129004059587</v>
+      </c>
+      <c r="H91">
+        <v>-0.0005062503675020566</v>
+      </c>
+      <c r="I91">
+        <v>-0.0955246801110065</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2326266367924831</v>
+        <v>0.3373409598610373</v>
       </c>
       <c r="C92">
-        <v>-0.2695050708816153</v>
+        <v>0.1432776437712289</v>
       </c>
       <c r="D92">
-        <v>0.05666199656775495</v>
+        <v>0.003750990760034721</v>
       </c>
       <c r="E92">
-        <v>0.05294619339888362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06887579633018402</v>
+      </c>
+      <c r="F92">
+        <v>-0.02626340065924506</v>
+      </c>
+      <c r="G92">
+        <v>-0.02640890685725032</v>
+      </c>
+      <c r="H92">
+        <v>-0.01880871144540529</v>
+      </c>
+      <c r="I92">
+        <v>0.2561345944987977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2714527380793357</v>
+        <v>0.3354540247104168</v>
       </c>
       <c r="C93">
-        <v>-0.2616165694417586</v>
+        <v>0.1145260925848349</v>
       </c>
       <c r="D93">
-        <v>-0.01542580072325736</v>
+        <v>0.0157255733915605</v>
       </c>
       <c r="E93">
-        <v>0.002136019510926433</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02532840177152388</v>
+      </c>
+      <c r="F93">
+        <v>-0.007152534494924552</v>
+      </c>
+      <c r="G93">
+        <v>0.01871439195756127</v>
+      </c>
+      <c r="H93">
+        <v>-0.001975585619408211</v>
+      </c>
+      <c r="I93">
+        <v>-0.04787080886075914</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3058080420253745</v>
+        <v>0.1348703121392814</v>
       </c>
       <c r="C94">
-        <v>0.2625798924046872</v>
+        <v>-0.3607898027574216</v>
       </c>
       <c r="D94">
-        <v>0.3557013280440401</v>
+        <v>0.3427687025767662</v>
       </c>
       <c r="E94">
-        <v>-0.2016216703326432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06020542407387338</v>
+      </c>
+      <c r="F94">
+        <v>0.09125180043790816</v>
+      </c>
+      <c r="G94">
+        <v>-0.2936273141023952</v>
+      </c>
+      <c r="H94">
+        <v>0.1022512525883921</v>
+      </c>
+      <c r="I94">
+        <v>0.3081748382341894</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01573598153974366</v>
+        <v>0.01783807927500759</v>
       </c>
       <c r="C95">
-        <v>0.03798986752990392</v>
+        <v>-0.0625665237749847</v>
       </c>
       <c r="D95">
-        <v>-0.02829902827829785</v>
+        <v>-0.1061493273260234</v>
       </c>
       <c r="E95">
-        <v>0.08876467495950879</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.155978981543988</v>
+      </c>
+      <c r="F95">
+        <v>0.02178558667139896</v>
+      </c>
+      <c r="G95">
+        <v>0.02510598881433507</v>
+      </c>
+      <c r="H95">
+        <v>-0.4152239757997959</v>
+      </c>
+      <c r="I95">
+        <v>0.3877784949880146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001043013396361099</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0004495466472810859</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0006017450786377123</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003213608274204552</v>
+      </c>
+      <c r="F97">
+        <v>5.732496121411764e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004789621047930784</v>
+      </c>
+      <c r="H97">
+        <v>-0.003028065441846008</v>
+      </c>
+      <c r="I97">
+        <v>0.002809633035143132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1485668881379707</v>
+        <v>0.1129623452689428</v>
       </c>
       <c r="C98">
-        <v>0.07815874355231642</v>
+        <v>-0.1474608675134539</v>
       </c>
       <c r="D98">
-        <v>-0.1491311949443294</v>
+        <v>-0.06867370974438392</v>
       </c>
       <c r="E98">
-        <v>-0.2017624783556895</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2077392487275386</v>
+      </c>
+      <c r="F98">
+        <v>0.2431583299353404</v>
+      </c>
+      <c r="G98">
+        <v>0.2950737380849647</v>
+      </c>
+      <c r="H98">
+        <v>0.1232133352620692</v>
+      </c>
+      <c r="I98">
+        <v>0.002565302598220714</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-5.277528373029105e-05</v>
+        <v>-0.0009961269686275835</v>
       </c>
       <c r="C101">
-        <v>0.02051448952391556</v>
+        <v>-0.03059340268150833</v>
       </c>
       <c r="D101">
-        <v>-0.09754021288138275</v>
+        <v>-0.09789924628724826</v>
       </c>
       <c r="E101">
-        <v>0.01448629537713544</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05607705105698181</v>
+      </c>
+      <c r="F101">
+        <v>-0.03773114223866447</v>
+      </c>
+      <c r="G101">
+        <v>-0.02301021459923392</v>
+      </c>
+      <c r="H101">
+        <v>-0.1283280807935917</v>
+      </c>
+      <c r="I101">
+        <v>-0.0002710209452555259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1105220142659911</v>
+        <v>0.03142619166933587</v>
       </c>
       <c r="C102">
-        <v>0.1535269908582224</v>
+        <v>-0.1519942097592971</v>
       </c>
       <c r="D102">
-        <v>0.06762225466790787</v>
+        <v>0.09316924291267238</v>
       </c>
       <c r="E102">
-        <v>-0.04800647676184981</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03360163146331328</v>
+      </c>
+      <c r="F102">
+        <v>0.05953935051661405</v>
+      </c>
+      <c r="G102">
+        <v>-0.008939424940512759</v>
+      </c>
+      <c r="H102">
+        <v>-0.05485018842620505</v>
+      </c>
+      <c r="I102">
+        <v>-0.02835071755579227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
